--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_239.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_239.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,638 +488,640 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1678571428571429</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B', 'E/5', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db/5', 'Ab']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(58.625147, 64.604285)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0.243, 9.12)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:57.480000', '0:01:04.580000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D', 'D/b7', 'G/3']]</t>
-        </is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_146</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1458333333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'D']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(32.879478, 37.291269)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(34.290634, 42.011269)]</t>
+          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
+          <t>[('0:00:05.915850', '0:00:14.867142')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3028846153846154</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_194</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2077922077922078</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>[['F:min/C', 'C', 'F:min/C']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(2.3, 7.04)]</t>
+          <t>[['C:min', 'G:maj/B', 'C:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(80.22, 87.22)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:42.520000', '0:00:46.360000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:16.240000', '0:00:19.080000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaah_1</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1963636363636364</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj/E', 'E:7', 'A:maj'], ['A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(150.16, 154.94)]</t>
+          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Bb:7', 'Eb'], ['Eb', 'Eb', 'Bb:7']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(148.1, 152.6)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:05.780000', '0:00:11.380000'), ('0:00:16.040000', '0:00:18.720000'), ('0:00:06.560000', '0:00:12.600000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:06.880000', '0:00:12.970000'), ('0:00:04.830000', '0:00:10.940000'), ('0:00:02.770000', '0:00:08.900000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1342905405405405</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Eb'], ['Ab', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_0</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2083333333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D', 'D/2', 'D/3'], ['G', 'D', 'D/2']]</t>
+          <t>[['G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(17.94, 18.86), (235.66, 239.34)]</t>
+          <t>[['Ab', 'Db', 'Ab', 'Db', 'Ab']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(53.594164, 57.7109), (57.7109, 74.388469)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:09.640000', '0:00:12.540000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:01:00.436303', '0:01:14.066417')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_170</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1060794044665012</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D/7', 'D/6', 'A'], ['B:min', 'D:7/5', 'G']]</t>
-        </is>
+          <t>jaah_52</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>jaah_54</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.09943714821763602</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'E'], ['F#:min', 'A:7', 'D']]</t>
+          <t>[['F', 'F', 'C:7', 'C:7', 'F']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(12.39, 14.239254), (53.540761, 55.886393)]</t>
+          <t>[['Eb', 'Eb', 'Bb:7', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(16.585419, 21.24102), (11.929818, 15.436031)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
+          <t>[('0:00:07.770000', '0:00:16.750000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:22.370000', '0:00:40.370000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1180555555555556</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G', 'A:7', 'D'], ['D', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:maj/G', 'G:7', 'C:maj'], ['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(27.609, 32.201), (6.536, 9.774)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(29.84, 37.2), (9.92, 11.96)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:16.320000', '0:01:01.580000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:17.320000', '0:01:02.460000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1142241379310345</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['Bb:maj', 'Eb:maj', 'Ab:maj'], ['Bb/3', 'Eb:maj', 'Bb/3']]</t>
-        </is>
+          <t>schubert-winterreise_87</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_8</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'G'], ['D', 'G', 'D']]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(237.731, 240.233), (38.041, 42.375)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(31.43458, 34.406734), (5.20815, 11.03585)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
+          <t>[('0:00:10.700000', '0:00:35.520000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:14.440000', '0:00:47.400000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_140</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['A:min', 'E:7/A', 'E:(3,5,b7,b9)/A', 'A:min', 'E:(3,5,b7,b9)/A', 'A:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(7.54, 16.72)]</t>
+          <t>[['C:min', 'G:7/C', 'G:(3,5,b7,b9)/C', 'C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[('0:00:14.460000', '0:00:46.680000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:13.640000', '0:00:43.660000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2410714285714286</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
+          <t>isophonics_164</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3642857142857143</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>[['C:min', 'D:7', 'G'], ['Eb', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(1.014823, 12.241493)]</t>
+          <t>[['F:min', 'G:7/B', 'C:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(55.18, 62.06)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:14.967000', '0:01:24.194000'), ('0:00:48.001000', '0:00:54.307000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:11.200000', '0:00:17.780000'), ('0:01:03.100000', '0:01:04.320000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4038461538461539</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(105.28, 122.26)]</t>
+          <t>[['B', 'E', 'B', 'F#']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(11.06, 17.28)]</t>
+          <t>[('0:00:57.480000', '0:01:08.700000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:19.602494', '0:00:27.450839')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_41</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1202986725663717</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A', 'A/7', 'A/b7', 'A/6', 'A/b6', 'A/5']]</t>
-        </is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F', 'F', 'F', 'F', 'F', 'F']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(84.787426, 88.282029)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(133.33, 140.4)]</t>
+          <t>[('0:00:16.840000', '0:00:21.540000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:00:07.600000', '0:00:23.340000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(2.612267, 17.443474)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(83.34, 87.64)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.171875</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'D'], ['A/3', 'D', 'A']]</t>
-        </is>
+          <t>isophonics_294</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.4178571428571429</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:maj', 'G:maj'], ['D:maj', 'G:maj', 'D:maj']]</t>
+          <t>[['G', 'C', 'G/3']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(39.148775, 43.514126), (65.81034, 71.679931)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(9.967, 16.743), (11.384, 18.318)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:22.020589', '0:00:24.598004')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_204</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_201</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(42.08, 57.88)]</t>
+          <t>[['D:(3,b5,b7)/F#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(48.001, 54.307)]</t>
+          <t>[('0:00:43.100000', '0:00:47.740000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:37.820000', '0:00:42.820000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_225</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1098901098901099</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F#:7', 'G:(3,5)', 'B:min/F#']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'F', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(65.64, 82.3)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(56.35, 63.977)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
